--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1242.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1242.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
+        <v>1.209324836730957</v>
+      </c>
+      <c r="B1">
         <v>-1</v>
       </c>
-      <c r="B1">
-        <v>3.254276428358095</v>
-      </c>
       <c r="C1">
-        <v>1.588714519233613</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.15261186567076</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.9983484852446571</v>
+        <v>1.201998710632324</v>
       </c>
     </row>
   </sheetData>
